--- a/ResumenRealizado.xlsx
+++ b/ResumenRealizado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Universidad\upo\Tercero\1-TSI\TRABAJO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Universidad\Github\UPOBRICO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65F8558F-10E9-4225-8C58-DC0DD5E97D2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCE15C79-B8E5-4DD5-9B0D-E6BE00F023B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,41 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>kzr</author>
-  </authors>
-  <commentList>
-    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{0BF9FBC8-1B50-41BD-88B0-645560A76E53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>kzr:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Funciona en instalacion
-pero da error NaN%</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
@@ -162,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,19 +149,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -569,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1021,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
@@ -1145,6 +1099,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>